--- a/outputs/SORs/SOR Testing_Corp Logistics.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Logistics.xlsx
@@ -8,16 +8,16 @@
   <sheets>
     <sheet name="Chino California" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Edmonton Canada" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Edmonton EDM Canada" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="El Paso Texas - EPC" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Florence Kentucky" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Indianapolis Indiana" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Lavergne Tennessee" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Mississauga Canada" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Pharr Texas" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Rosemont Illinois" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Grafton Wisconsin" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="El Paso Texas - EPC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Florence Kentucky" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Indianapolis Indiana" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lavergne Tennessee" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Pharr Texas" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Rosemont Illinois" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mississauga Canada" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Grafton Wisconsin" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Edmonton EDM Canada" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Mississauga Mid-Way Canada" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Monterrey Rbm Mexico" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Montreal Canada" sheetId="15" state="visible" r:id="rId15"/>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -124,9 +124,6 @@
     <t xml:space="preserve">Edmonton Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">Edmonton EDM Canada</t>
-  </si>
-  <si>
     <t xml:space="preserve">El Paso Texas - EPC</t>
   </si>
   <si>
@@ -145,16 +142,19 @@
     <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
   <si>
-    <t xml:space="preserve">Mississauga Canada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pharr Texas</t>
   </si>
   <si>
     <t xml:space="preserve">Rosemont Illinois</t>
   </si>
   <si>
+    <t xml:space="preserve">Mississauga Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grafton Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edmonton EDM Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Mississauga Mid-Way Canada</t>
@@ -829,7 +829,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -900,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -971,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1132,21 +1132,11 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="10" t="n">
         <v>0</v>
       </c>
@@ -1203,21 +1193,11 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="10" t="n">
         <v>0</v>
       </c>
@@ -1337,58 +1317,34 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
       <c r="W5" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1402,64 +1358,62 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>0.04</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="10" t="n">
-        <v>0.0389</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="10" t="n">
-        <v>0.0741</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="10" t="n">
-        <v>0.0714</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="10" t="n">
-        <v>0.1053</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -1476,22 +1430,22 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="I7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="10" t="n">
-        <v>0.03501</v>
+        <v>0</v>
       </c>
       <c r="K7" s="10" t="n">
         <v>0</v>
@@ -1521,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.06669</v>
+        <v>0</v>
       </c>
       <c r="U7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.06426</v>
+        <v>0</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.09477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1547,61 +1501,132 @@
         <v>30</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10" t="n">
-        <v>0.0312</v>
-      </c>
-      <c r="L8" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M8" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N8" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O8" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P8" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q8" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R8" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S8" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T8" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U8" s="10" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V8" s="10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W8" s="10" t="n">
-        <v>1</v>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1708,30 +1733,14 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="11" t="n">
         <v>0</v>
       </c>
@@ -1779,30 +1788,14 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="11" t="n">
         <v>0</v>
       </c>
@@ -2004,16 +1997,32 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" s="12" t="n">
         <v>0</v>
       </c>
@@ -2053,22 +2062,38 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="O3" s="12" t="n">
         <v>0</v>
       </c>
@@ -2108,63 +2133,134 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="12" t="n">
+      <c r="G5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2267,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2338,7 +2434,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2409,7 +2505,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2564,7 +2660,9 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2617,7 +2715,9 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2755,7 +2855,9 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2822,7 +2924,9 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3294,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0</v>
+        <v>0.4348</v>
       </c>
       <c r="O2" s="3" t="n">
         <v>0</v>
@@ -3321,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0</v>
+        <v>0.5882</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3365,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>0.29997</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>0</v>
+        <v>0.39132</v>
       </c>
       <c r="O3" s="3" t="n">
         <v>0</v>
@@ -3392,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0</v>
+        <v>0.52938</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -3483,7 +3587,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0</v>
@@ -3491,54 +3595,26 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="3" t="n">
         <v>0</v>
       </c>
@@ -3554,7 +3630,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0</v>
@@ -3563,55 +3639,55 @@
         <v>28</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -3625,7 +3701,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0</v>
@@ -3633,18 +3709,10 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
@@ -3682,6 +3750,219 @@
         <v>0</v>
       </c>
       <c r="W7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0.1274</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>0.1299</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0.05625</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0.06003</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0.11466</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>0.11691</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3778,7 +4059,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -3805,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.4348</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0</v>
@@ -3832,13 +4113,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5882</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3849,7 +4130,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -3876,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.29997</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.39132</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>0</v>
@@ -3903,13 +4184,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.52938</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3920,7 +4201,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -3991,14 +4272,12 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -4007,17 +4286,17 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
@@ -4034,14 +4313,12 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -4105,32 +4382,40 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.0294</v>
+      </c>
       <c r="K7" s="4" t="n">
-        <v>0</v>
+        <v>0.0308</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0</v>
+        <v>0.0628</v>
       </c>
       <c r="O7" s="4" t="n">
         <v>0</v>
@@ -4145,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
@@ -4154,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>0</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="8">
@@ -4168,40 +4453,40 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0</v>
+        <v>0.01287</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0</v>
+        <v>0.01341</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0</v>
+        <v>0.02646</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0</v>
+        <v>0.02772</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.0625</v>
+        <v>0.01404</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0.0667</v>
+        <v>0.01449</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.1274</v>
+        <v>0.05652</v>
       </c>
       <c r="O8" s="4" t="n">
         <v>0</v>
@@ -4216,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0</v>
+        <v>0.01404</v>
       </c>
       <c r="T8" s="4" t="n">
         <v>0</v>
@@ -4225,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0</v>
+        <v>0.01404</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>0.1299</v>
+        <v>0.09711</v>
       </c>
     </row>
     <row r="9">
@@ -4239,40 +4524,40 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>0</v>
+        <v>0.0328</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0</v>
+        <v>0.0328</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0</v>
+        <v>0.0169</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.05625</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.06003</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.11466</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>0</v>
@@ -4299,77 +4584,6 @@
         <v>0</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0.11691</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.0714</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4478,7 +4692,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>0</v>
@@ -4487,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>0</v>
+        <v>0.073</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>0</v>
@@ -4517,16 +4731,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="U2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="W2" s="5" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3">
@@ -4549,7 +4763,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0</v>
+        <v>0.06921</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>0</v>
@@ -4558,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0</v>
+        <v>0.0657</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>0</v>
@@ -4588,16 +4802,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>0</v>
+        <v>0.05625</v>
       </c>
       <c r="U3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0</v>
+        <v>0.05625</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>0</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="4">
@@ -4682,28 +4896,30 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -4723,9 +4939,11 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -4792,37 +5010,33 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0.0143</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.0308</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0.0156</v>
+        <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.0161</v>
+        <v>0</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0628</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>0</v>
@@ -4837,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0.0156</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>0</v>
@@ -4846,10 +5060,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.0156</v>
+        <v>0</v>
       </c>
       <c r="W7" s="5" t="n">
-        <v>0.1079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4866,34 +5080,34 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01287</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01341</v>
+        <v>0.0811</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0</v>
+        <v>0.0294</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02646</v>
+        <v>0.112</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02772</v>
+        <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01404</v>
+        <v>0.0732</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01449</v>
+        <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05652</v>
+        <v>0.0726</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>0</v>
@@ -4908,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0.01404</v>
+        <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>0</v>
+        <v>0.0204</v>
       </c>
       <c r="U8" s="5" t="n">
-        <v>0</v>
+        <v>0.0213</v>
       </c>
       <c r="V8" s="5" t="n">
-        <v>0.01404</v>
+        <v>0.0408</v>
       </c>
       <c r="W8" s="5" t="n">
-        <v>0.09711</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="9">
@@ -4937,60 +5151,131 @@
         <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.07299</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.02646</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.06588</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.06534</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>0.01836</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>0.01917</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>0.03672</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>0.18531</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>0.0328</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>0.0328</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>0.0169</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n">
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.0656</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5099,7 +5384,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>0.0714</v>
+        <v>0</v>
       </c>
       <c r="H2" s="6" t="n">
         <v>0</v>
@@ -5108,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="K2" s="6" t="n">
         <v>0</v>
@@ -5138,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="6" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="U2" s="6" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>0.0588</v>
+        <v>0.073</v>
       </c>
       <c r="W2" s="6" t="n">
-        <v>0.1176</v>
+        <v>0.0719</v>
       </c>
     </row>
     <row r="3">
@@ -5170,7 +5455,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0.06426</v>
+        <v>0</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>0</v>
@@ -5179,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.0612</v>
+        <v>0</v>
       </c>
       <c r="K3" s="6" t="n">
         <v>0</v>
@@ -5209,16 +5494,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="6" t="n">
-        <v>0.05292</v>
+        <v>0</v>
       </c>
       <c r="U3" s="6" t="n">
-        <v>0</v>
+        <v>0.06921</v>
       </c>
       <c r="V3" s="6" t="n">
-        <v>0.05292</v>
+        <v>0.0657</v>
       </c>
       <c r="W3" s="6" t="n">
-        <v>0.10584</v>
+        <v>0.06471</v>
       </c>
     </row>
     <row r="4">
@@ -5303,21 +5588,21 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="H5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -5332,7 +5617,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5346,10 +5631,10 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5417,60 +5702,60 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J7" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -5487,7 +5772,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5496,28 +5781,28 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0811</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0294</v>
+        <v>0.0526</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.112</v>
+        <v>0.0508</v>
       </c>
       <c r="K8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="6" t="n">
-        <v>0.0732</v>
+        <v>0.0556</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0726</v>
+        <v>0.1695</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>0</v>
@@ -5526,22 +5811,22 @@
         <v>0</v>
       </c>
       <c r="R8" s="6" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="S8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="6" t="n">
-        <v>0.0204</v>
+        <v>0.0588</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0213</v>
+        <v>0</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0408</v>
+        <v>0.0578</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2059</v>
+        <v>0.3352</v>
       </c>
     </row>
     <row r="9">
@@ -5558,7 +5843,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5567,28 +5852,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07299</v>
+        <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02646</v>
+        <v>0.04734</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1008</v>
+        <v>0.04572</v>
       </c>
       <c r="K9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="6" t="n">
-        <v>0.06588</v>
+        <v>0.05004</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>0</v>
+        <v>0.1125</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06534</v>
+        <v>0.15255</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0</v>
+        <v>0.05625</v>
       </c>
       <c r="P9" s="6" t="n">
         <v>0</v>
@@ -5597,22 +5882,22 @@
         <v>0</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>0</v>
+        <v>0.05292</v>
       </c>
       <c r="S9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="6" t="n">
-        <v>0.01836</v>
+        <v>0.05292</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01917</v>
+        <v>0</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03672</v>
+        <v>0.05202</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.18531</v>
+        <v>0.30168</v>
       </c>
     </row>
     <row r="10">
@@ -5629,25 +5914,25 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0667</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0656</v>
+        <v>0.0535</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>0.0227</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
@@ -5803,16 +6088,16 @@
         <v>0</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="L2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>0</v>
+        <v>0.2299</v>
       </c>
       <c r="O2" s="7" t="n">
         <v>0</v>
@@ -5833,13 +6118,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="7" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="V2" s="7" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="W2" s="7" t="n">
-        <v>0.0719</v>
+        <v>0.2439</v>
       </c>
     </row>
     <row r="3">
@@ -5874,16 +6159,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>0</v>
+        <v>0.09999</v>
       </c>
       <c r="L3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>0</v>
+        <v>0.1125</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>0</v>
+        <v>0.20691</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>0</v>
@@ -5904,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="7" t="n">
-        <v>0.06921</v>
+        <v>0</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0.0657</v>
+        <v>0</v>
       </c>
       <c r="W3" s="7" t="n">
-        <v>0.06471</v>
+        <v>0.21951</v>
       </c>
     </row>
     <row r="4">
@@ -5936,13 +6221,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0</v>
+        <v>0.2857</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
@@ -5995,26 +6280,28 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0.5</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -6024,7 +6311,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6038,11 +6325,9 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>0.5</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -6096,286 +6381,6 @@
       </c>
       <c r="W6" s="7" t="n">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0.0526</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>0.0508</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0.0556</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>0.1695</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="n">
-        <v>0.0588</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7" t="n">
-        <v>0.0588</v>
-      </c>
-      <c r="U8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7" t="n">
-        <v>0.0578</v>
-      </c>
-      <c r="W8" s="7" t="n">
-        <v>0.3352</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0.04734</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>0.04572</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0.05004</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>0.15255</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>0.05292</v>
-      </c>
-      <c r="S9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7" t="n">
-        <v>0.05292</v>
-      </c>
-      <c r="U9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7" t="n">
-        <v>0.05202</v>
-      </c>
-      <c r="W9" s="7" t="n">
-        <v>0.30168</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>0.0556</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="n">
-        <v>0.0535</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6495,16 +6500,16 @@
         <v>0</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>0.1111</v>
+        <v>0</v>
       </c>
       <c r="L2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="8" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="N2" s="8" t="n">
-        <v>0.2299</v>
+        <v>0</v>
       </c>
       <c r="O2" s="8" t="n">
         <v>0</v>
@@ -6531,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="8" t="n">
-        <v>0.2439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6566,16 +6571,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>0.09999</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>0.1125</v>
+        <v>0</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>0.20691</v>
+        <v>0</v>
       </c>
       <c r="O3" s="8" t="n">
         <v>0</v>
@@ -6602,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0.21951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6628,13 +6633,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.2857</v>
+        <v>0</v>
       </c>
       <c r="K4" s="8" t="n">
         <v>0</v>
@@ -6687,38 +6692,58 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6732,62 +6757,206 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>0.0741</v>
+      </c>
+      <c r="U6" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="W6" s="8" t="n">
+        <v>0.1053</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="8" t="n">
-        <v>0.5</v>
+      <c r="G7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>0.03501</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="8" t="n">
+        <v>0.06669</v>
+      </c>
+      <c r="U7" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8" t="n">
+        <v>0.06426</v>
+      </c>
+      <c r="W7" s="8" t="n">
+        <v>0.09477</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P8" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S8" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T8" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U8" s="8" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V8" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W8" s="8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7088,329 +7257,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/outputs/SORs/SOR Testing_Corp Logistics.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Logistics.xlsx
@@ -829,7 +829,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -900,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -971,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1430,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1501,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1572,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2065,7 +2065,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -2136,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -2207,7 +2207,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -2363,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2434,7 +2434,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2505,7 +2505,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2661,7 +2661,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2716,7 +2716,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2856,7 +2856,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2925,7 +2925,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3716,9 +3716,7 @@
       <c r="K7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="n">
         <v>0</v>
       </c>
@@ -3767,7 +3765,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3838,7 +3836,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3909,7 +3907,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4388,7 +4386,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4459,7 +4457,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4530,7 +4528,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5029,9 +5027,7 @@
       <c r="K7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>0</v>
       </c>
@@ -5080,7 +5076,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5151,7 +5147,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5222,7 +5218,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5243,7 +5239,7 @@
         <v>0.0227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -5591,7 +5587,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5634,7 +5630,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5705,7 +5701,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5722,40 +5718,40 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -5772,7 +5768,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5843,7 +5839,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5914,7 +5910,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6645,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="M4" s="8" t="n">
         <v>0</v>
@@ -6760,7 +6756,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -6831,7 +6827,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -6902,7 +6898,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -6923,40 +6919,40 @@
         <v>0.0312</v>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R8" s="8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S8" s="8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T8" s="8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V8" s="8" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W8" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_Corp Logistics.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Logistics.xlsx
@@ -829,7 +829,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -900,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -971,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -995,37 +995,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1501,7 +1501,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1572,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2065,7 +2065,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -2136,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -2207,7 +2207,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -2363,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2434,7 +2434,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2505,7 +2505,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2660,9 +2660,7 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2715,9 +2713,7 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="14" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2855,9 +2851,7 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="15"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2924,9 +2918,7 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="15"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3765,7 +3757,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0676</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3836,7 +3828,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0676</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3907,7 +3899,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0676</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3931,37 +3923,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0</v>
+        <v>0.04055</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0</v>
+        <v>0.04055</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0</v>
+        <v>0.0135166666666667</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0</v>
+        <v>0.04055</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0</v>
+        <v>0.1622</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +4378,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.05</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4457,7 +4449,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.05</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4528,7 +4520,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.05</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4552,37 +4544,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -5076,7 +5068,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.1591</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5147,7 +5139,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.1591</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5218,7 +5210,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.1591</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5242,37 +5234,37 @@
         <v>0.0769</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0</v>
+        <v>0.0318166666666667</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0.09545</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0</v>
+        <v>0.0318166666666667</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0</v>
+        <v>0.0318166666666667</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0</v>
+        <v>0.0318166666666667</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0</v>
+        <v>0.09545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>0.0318166666666667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0</v>
+        <v>0.0318166666666667</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0</v>
+        <v>0.0318166666666667</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0</v>
+        <v>0.09545</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0</v>
+        <v>0.3818</v>
       </c>
     </row>
   </sheetData>
@@ -5768,7 +5760,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0538</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5839,7 +5831,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0538</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5910,7 +5902,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.0538</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5934,37 +5926,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0</v>
+        <v>0.0107583333333333</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
+        <v>0.032275</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.0107583333333333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0</v>
+        <v>0.0107583333333333</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0</v>
+        <v>0.0107583333333333</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0</v>
+        <v>0.032275</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0</v>
+        <v>0.0107583333333333</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0</v>
+        <v>0.0107583333333333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
+        <v>0.0107583333333333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0</v>
+        <v>0.032275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0</v>
+        <v>0.1291</v>
       </c>
     </row>
   </sheetData>
@@ -6066,7 +6058,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6137,7 +6129,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6208,7 +6200,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6232,37 +6224,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.7272</v>
       </c>
     </row>
     <row r="5">
@@ -6478,7 +6470,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6549,7 +6541,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6620,7 +6612,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6644,37 +6636,37 @@
         <v>0.1429</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.3077</v>
       </c>
     </row>
     <row r="5">
@@ -6756,7 +6748,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0327</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -6827,7 +6819,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0327</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -6898,7 +6890,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0327</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -6922,37 +6914,37 @@
         <v>0</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0</v>
+        <v>0.00654166666666667</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0</v>
+        <v>0.019625</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0</v>
+        <v>0.00654166666666667</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>0</v>
+        <v>0.00654166666666667</v>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>0</v>
+        <v>0.00654166666666667</v>
       </c>
       <c r="R8" s="8" t="n">
-        <v>0</v>
+        <v>0.019625</v>
       </c>
       <c r="S8" s="8" t="n">
-        <v>0</v>
+        <v>0.00654166666666667</v>
       </c>
       <c r="T8" s="8" t="n">
-        <v>0</v>
+        <v>0.00654166666666667</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>0</v>
+        <v>0.00654166666666667</v>
       </c>
       <c r="V8" s="8" t="n">
-        <v>0</v>
+        <v>0.019625</v>
       </c>
       <c r="W8" s="8" t="n">
-        <v>0</v>
+        <v>0.0785</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_Corp Logistics.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Logistics.xlsx
@@ -995,37 +995,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.04</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.04</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.04</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.04</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.04</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.04</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -3709,9 +3709,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="3" t="n">
         <v>0</v>
       </c>
@@ -3923,37 +3921,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.0135166666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0.04055</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.0135166666666667</v>
+        <v>0.0112666666666667</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.0135166666666667</v>
+        <v>0.0112666666666667</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.0135166666666667</v>
+        <v>0.0112666666666667</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.04055</v>
+        <v>0.0338</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.0135166666666667</v>
+        <v>0.0112666666666667</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.0135166666666667</v>
+        <v>0.0112666666666667</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.0135166666666667</v>
+        <v>0.0112666666666667</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.04055</v>
+        <v>0.0338</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0.1622</v>
+        <v>0.1352</v>
       </c>
     </row>
   </sheetData>
@@ -4378,7 +4376,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.05</v>
+        <v>0.067</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4449,7 +4447,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.05</v>
+        <v>0.067</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4520,7 +4518,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.05</v>
+        <v>0.067</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4544,37 +4542,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>0.01</v>
+        <v>0.0172</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.03</v>
+        <v>0.0343</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.01</v>
+        <v>0.0111666666666667</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.01</v>
+        <v>0.0111666666666667</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.01</v>
+        <v>0.0111666666666667</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.03</v>
+        <v>0.0335</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.01</v>
+        <v>0.0111666666666667</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.01</v>
+        <v>0.0111666666666667</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0.01</v>
+        <v>0.0111666666666667</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.03</v>
+        <v>0.0335</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0.12</v>
+        <v>0.134</v>
       </c>
     </row>
   </sheetData>
@@ -4676,7 +4674,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4747,7 +4745,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4818,7 +4816,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4842,37 +4840,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>0.0535</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
+        <v>0.0278</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>0.0278</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="5">
@@ -5020,9 +5018,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5" t="n">
         <v>0</v>
       </c>
@@ -5068,7 +5064,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1591</v>
+        <v>0.186</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5139,7 +5135,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1591</v>
+        <v>0.186</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5210,7 +5206,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1591</v>
+        <v>0.186</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5234,37 +5230,37 @@
         <v>0.0769</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.0318166666666667</v>
+        <v>0.0263</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09545</v>
+        <v>0.1241</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.0318166666666667</v>
+        <v>0.031</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.0318166666666667</v>
+        <v>0.031</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.0318166666666667</v>
+        <v>0.031</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.09545</v>
+        <v>0.093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0.0318166666666667</v>
+        <v>0.031</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.0318166666666667</v>
+        <v>0.031</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0.0318166666666667</v>
+        <v>0.031</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0.09545</v>
+        <v>0.093</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0.3818</v>
+        <v>0.372</v>
       </c>
     </row>
   </sheetData>
@@ -5366,7 +5362,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.069</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5437,7 +5433,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.069</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5508,7 +5504,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.069</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5532,37 +5528,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.0667</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.0667</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.0115</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.0115</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.0115</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.0115</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.0115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="5">
@@ -5712,11 +5708,9 @@
       <c r="L7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="6" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="6" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0.666666666666667</v>
@@ -5760,7 +5754,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0538</v>
+        <v>0.0541</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5831,7 +5825,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0538</v>
+        <v>0.0541</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5902,7 +5896,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0538</v>
+        <v>0.0541</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5926,37 +5920,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0.0107583333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.032275</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0107583333333333</v>
+        <v>0.00901666666666667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0107583333333333</v>
+        <v>0.00901666666666667</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.0107583333333333</v>
+        <v>0.00901666666666667</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.032275</v>
+        <v>0.02705</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.0107583333333333</v>
+        <v>0.00901666666666667</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.0107583333333333</v>
+        <v>0.00901666666666667</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0107583333333333</v>
+        <v>0.00901666666666667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.032275</v>
+        <v>0.02705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1291</v>
+        <v>0.1082</v>
       </c>
     </row>
   </sheetData>
@@ -6058,7 +6052,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.303</v>
+        <v>0.3077</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6129,7 +6123,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.303</v>
+        <v>0.3077</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6200,7 +6194,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.303</v>
+        <v>0.3077</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6224,37 +6218,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0606</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0606</v>
+        <v>0.0512833333333333</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0606</v>
+        <v>0.0512833333333333</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0606</v>
+        <v>0.0512833333333333</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.1818</v>
+        <v>0.15385</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0606</v>
+        <v>0.0512833333333333</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0606</v>
+        <v>0.0512833333333333</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0606</v>
+        <v>0.0512833333333333</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1818</v>
+        <v>0.15385</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.7272</v>
+        <v>0.6154</v>
       </c>
     </row>
     <row r="5">
@@ -6470,7 +6464,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.1282</v>
+        <v>0.1299</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6541,7 +6535,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.1282</v>
+        <v>0.1299</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6612,7 +6606,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.1282</v>
+        <v>0.1299</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6636,37 +6630,37 @@
         <v>0.1429</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.076925</v>
+        <v>0.137</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.02165</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.02165</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.02165</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.076925</v>
+        <v>0.06495</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.02165</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.02165</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.02165</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.076925</v>
+        <v>0.06495</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.3077</v>
+        <v>0.2598</v>
       </c>
     </row>
     <row r="5">
@@ -6700,9 +6694,7 @@
       <c r="L5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="8"/>
       <c r="N5" s="8" t="n">
         <v>1</v>
       </c>
@@ -6748,7 +6740,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>0.0327</v>
+        <v>0.0649</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -6819,7 +6811,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.0327</v>
+        <v>0.0649</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -6890,7 +6882,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0327</v>
+        <v>0.0649</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -6914,37 +6906,37 @@
         <v>0</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.00654166666666667</v>
+        <v>0.0312</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.019625</v>
+        <v>0.0625</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.00654166666666667</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>0.00654166666666667</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>0.00654166666666667</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="R8" s="8" t="n">
-        <v>0.019625</v>
+        <v>0.03245</v>
       </c>
       <c r="S8" s="8" t="n">
-        <v>0.00654166666666667</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="T8" s="8" t="n">
-        <v>0.00654166666666667</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>0.00654166666666667</v>
+        <v>0.0108166666666667</v>
       </c>
       <c r="V8" s="8" t="n">
-        <v>0.019625</v>
+        <v>0.03245</v>
       </c>
       <c r="W8" s="8" t="n">
-        <v>0.0785</v>
+        <v>0.1298</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_Corp Logistics.xlsx
+++ b/outputs/SORs/SOR Testing_Corp Logistics.xlsx
@@ -18,15 +18,16 @@
     <sheet name="Mississauga Canada" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Grafton Wisconsin" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Edmonton EDM Canada" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Mississauga Mid-Way Canada" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Monterrey Rbm Mexico" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Montreal Canada" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Manila Philippines" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mississauga Mid-Way Canada" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Monterrey Rbm Mexico" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Montreal Canada" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -157,6 +158,9 @@
     <t xml:space="preserve">Edmonton EDM Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Manila Philippines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mississauga Mid-Way Canada</t>
   </si>
   <si>
@@ -170,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="15">
+  <numFmts count="16">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -186,6 +190,7 @@
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -221,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -238,6 +243,7 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,31 +1007,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.0333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.028575</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.028575</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.1</v>
+        <v>0.085725</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.028575</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.028575</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.028575</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.1</v>
+        <v>0.085725</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0.4</v>
+        <v>0.3429</v>
       </c>
     </row>
   </sheetData>
@@ -2360,38 +2366,22 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="13" t="n">
         <v>0</v>
       </c>
@@ -2417,148 +2407,6 @@
         <v>0</v>
       </c>
       <c r="W2" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2660,7 +2508,9 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2680,24 +2530,40 @@
         <v>0</v>
       </c>
       <c r="L2" s="14" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M2" s="14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N2" s="14" t="n">
-        <v>0.8511</v>
-      </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="14" t="n">
-        <v>0.7692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2713,7 +2579,9 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2733,24 +2601,111 @@
         <v>0</v>
       </c>
       <c r="L3" s="14" t="n">
-        <v>0.675</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14" t="n">
-        <v>0.76599</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="14" t="n">
-        <v>0.69228</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2871,38 +2826,24 @@
         <v>0</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>0.8511</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="V2" s="15"/>
       <c r="W2" s="15" t="n">
-        <v>0</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="3">
@@ -2938,37 +2879,242 @@
         <v>0</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="N3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>0.76599</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="V3" s="15"/>
       <c r="W3" s="15" t="n">
+        <v>0.69228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,9 +3859,7 @@
       <c r="N7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3" t="n">
         <v>0</v>
       </c>
@@ -3755,7 +3899,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0676</v>
+        <v>0.0671</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3826,7 +3970,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0676</v>
+        <v>0.0671</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3897,7 +4041,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0676</v>
+        <v>0.0671</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3927,31 +4071,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.0112666666666667</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.0112666666666667</v>
+        <v>0.00958333333333333</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.0112666666666667</v>
+        <v>0.00958333333333333</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.0338</v>
+        <v>0.02875</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.0112666666666667</v>
+        <v>0.00958333333333333</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.0112666666666667</v>
+        <v>0.00958333333333333</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.0112666666666667</v>
+        <v>0.00958333333333333</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.0338</v>
+        <v>0.02875</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0.1352</v>
+        <v>0.115</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4520,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.067</v>
+        <v>0.0675</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4447,7 +4591,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.067</v>
+        <v>0.0675</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4518,7 +4662,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.067</v>
+        <v>0.0675</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4548,31 +4692,31 @@
         <v>0.0343</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.0111666666666667</v>
+        <v>0</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>0.0111666666666667</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.0111666666666667</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.0335</v>
+        <v>0.028925</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.0111666666666667</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0.0111666666666667</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>0.0111666666666667</v>
+        <v>0.00964166666666667</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0.0335</v>
+        <v>0.028925</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0.134</v>
+        <v>0.1157</v>
       </c>
     </row>
   </sheetData>
@@ -4846,31 +4990,31 @@
         <v>0.0535</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.0278</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.0278</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.1112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5022,9 +5166,7 @@
       <c r="N7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="5" t="n">
         <v>0</v>
       </c>
@@ -5064,7 +5206,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.186</v>
+        <v>0.2143</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5135,7 +5277,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.186</v>
+        <v>0.2143</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5206,7 +5348,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.186</v>
+        <v>0.2143</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5236,31 +5378,31 @@
         <v>0.1241</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.031</v>
+        <v>0.0278</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.031</v>
+        <v>0.0306166666666667</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.031</v>
+        <v>0.0306166666666667</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.093</v>
+        <v>0.09185</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0.031</v>
+        <v>0.0306166666666667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.031</v>
+        <v>0.0306166666666667</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0.031</v>
+        <v>0.0306166666666667</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0.093</v>
+        <v>0.09185</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0.372</v>
+        <v>0.3674</v>
       </c>
     </row>
   </sheetData>
@@ -5362,7 +5504,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.069</v>
+        <v>0.0685</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5433,7 +5575,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.069</v>
+        <v>0.0685</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5504,7 +5646,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.069</v>
+        <v>0.0685</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5534,31 +5676,31 @@
         <v>0.0667</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5712,9 +5854,7 @@
       <c r="N7" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="6" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="6"/>
       <c r="P7" s="6" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -5754,7 +5894,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0541</v>
+        <v>0.0543</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5825,7 +5965,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0541</v>
+        <v>0.0543</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5896,7 +6036,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0541</v>
+        <v>0.0543</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5926,31 +6066,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00901666666666667</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.00901666666666667</v>
+        <v>0.00775833333333333</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.00901666666666667</v>
+        <v>0.00775833333333333</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.02705</v>
+        <v>0.023275</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.00901666666666667</v>
+        <v>0.00775833333333333</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.00901666666666667</v>
+        <v>0.00775833333333333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00901666666666667</v>
+        <v>0.00775833333333333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02705</v>
+        <v>0.023275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1082</v>
+        <v>0.0931</v>
       </c>
     </row>
   </sheetData>
@@ -6052,7 +6192,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.3077</v>
+        <v>0.3125</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6123,7 +6263,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.3077</v>
+        <v>0.3125</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6194,7 +6334,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.3077</v>
+        <v>0.3125</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6224,31 +6364,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0512833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0512833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0512833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.15385</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0512833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0512833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0512833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.15385</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.6154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6464,7 +6604,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.1299</v>
+        <v>0.1316</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6535,7 +6675,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.1299</v>
+        <v>0.1316</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6606,7 +6746,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.1299</v>
+        <v>0.1316</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6636,31 +6776,31 @@
         <v>0.137</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.02165</v>
+        <v>0</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.02165</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.02165</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.06495</v>
+        <v>0</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.02165</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.02165</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.02165</v>
+        <v>0</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.06495</v>
+        <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.2598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6698,9 +6838,7 @@
       <c r="N5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="8"/>
       <c r="P5" s="8" t="n">
         <v>1</v>
       </c>
@@ -6740,7 +6878,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>0.0649</v>
+        <v>0.066</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -6811,7 +6949,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.0649</v>
+        <v>0.066</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -6882,7 +7020,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0649</v>
+        <v>0.066</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -6900,43 +7038,43 @@
         <v>0</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>0.0312</v>
+        <v>0.0323</v>
       </c>
       <c r="L8" s="8" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.0312</v>
+        <v>0.0323</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.0625</v>
+        <v>0.0645</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.0108166666666667</v>
+        <v>0</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>0.0108166666666667</v>
+        <v>0.009425</v>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>0.0108166666666667</v>
+        <v>0.009425</v>
       </c>
       <c r="R8" s="8" t="n">
-        <v>0.03245</v>
+        <v>0.028275</v>
       </c>
       <c r="S8" s="8" t="n">
-        <v>0.0108166666666667</v>
+        <v>0.009425</v>
       </c>
       <c r="T8" s="8" t="n">
-        <v>0.0108166666666667</v>
+        <v>0.009425</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>0.0108166666666667</v>
+        <v>0.009425</v>
       </c>
       <c r="V8" s="8" t="n">
-        <v>0.03245</v>
+        <v>0.028275</v>
       </c>
       <c r="W8" s="8" t="n">
-        <v>0.1298</v>
+        <v>0.1131</v>
       </c>
     </row>
   </sheetData>
